--- a/biology/Biologie cellulaire et moléculaire/Second_messager/Second_messager.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Second_messager/Second_messager.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les messagers secondaires, ou seconds messagers sont des molécules permettant la transduction d'un signal provenant de l'extérieur d'une cellule, vers l'intérieur ou la surface de celle-ci.
 Généralement un ligand (une hormone) se lie à un récepteur membranaire. Cette liaison est à l'origine de la libération d'un messager secondaire dans le cytoplasme, ou dans la membrane plasmique selon l'affinité chimique (hydrophile/hydrophobe) de celui-ci. Ce messager secondaire peut entraîner une cascade de réactions (ce qui amplifie le signal) débouchant sur une réponse cellulaire (transcription de gène-cible, libération du contenu de vésicules d'exocytose, etc.)
@@ -512,7 +524,9 @@
           <t>Définition de second messager</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le second messager doit présenter un certain nombre de propriétés pour être considéré comme tel:
 Il doit présenter une élévation temporaire de sa concentration due à la présence du premier messager (le ligand)
@@ -549,26 +563,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>L'action du glucagon
-Il y a fixation du glucagon ou adrénaline sur son récepteur spécifique de la cellule hépatique
+          <t>L'action du glucagon</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il y a fixation du glucagon ou adrénaline sur son récepteur spécifique de la cellule hépatique
 L'occupation du récepteur favorise le remplacement d'un GDP lié à la protéine G par un GTP ce qui active cette protéine (dans le cas présent Gs, G stimulatrice)
 La sous unité alpha, liée au GTP, se déplace vers l'adénylate cyclase (AC) et l'active
 L'adénylate cyclase (AC) catalyse la formation de l'AMPc à partir d'ATP
 L'AMPc active la protéine kinase AMPc dependante (PKA)
 Les PKA activent à leur tour des phosphorylases kinases
 Celles-ci vont elles-mêmes activer des Glycogènes phosphorylases kinases qui réduisent le glycogène en glucose-1-phosphate
-La phosphodiestérase de l'AMPc dégrade l'AMPc, arrêtant l'activation de la PKA
-Différentes actions des PKA
-Assemblage désassemblage des microtubules du cytoplasme
-Synthèse protéique dans le REG
-Synthèse d'ADN, d'ARN, différenciation dans le noyau
-Activation des glycogénes synthases : production de glycogènes
-Activation des triglycérides lipases : production de lipides
-Cas du récepteur beta adrénergique des cellules du tissu nodal du cœur
-La (nor)adrénaline se fixe sur le récepteur beta adrénergique
-Il y a clivage d'une protèine G qui active une AC (Adénylate Cyclase)
-Ceci entraine une augmentation de la concentration en AMPc qui se fixe sur un canal à Na+ et Ca2 +
-Ceci provoque à son tour l'ouverture du canal, entraînant la dépolarisation de la membrane de la cellule nodale avec pour conséquence l'accélération du rythme cardiaque.</t>
+La phosphodiestérase de l'AMPc dégrade l'AMPc, arrêtant l'activation de la PKA</t>
         </is>
       </c>
     </row>
@@ -593,10 +601,91 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Voies faisant intervenir l'AMPc</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Différentes actions des PKA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Assemblage désassemblage des microtubules du cytoplasme
+Synthèse protéique dans le REG
+Synthèse d'ADN, d'ARN, différenciation dans le noyau
+Activation des glycogénes synthases : production de glycogènes
+Activation des triglycérides lipases : production de lipides</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Second_messager</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Second_messager</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Voies faisant intervenir l'AMPc</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cas du récepteur beta adrénergique des cellules du tissu nodal du cœur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La (nor)adrénaline se fixe sur le récepteur beta adrénergique
+Il y a clivage d'une protèine G qui active une AC (Adénylate Cyclase)
+Ceci entraine une augmentation de la concentration en AMPc qui se fixe sur un canal à Na+ et Ca2 +
+Ceci provoque à son tour l'ouverture du canal, entraînant la dépolarisation de la membrane de la cellule nodale avec pour conséquence l'accélération du rythme cardiaque.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Second_messager</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Second_messager</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Voie des phosphatidyl-inositols</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hormone se lie au récepteur spécifique (par exemple le recepteur alpha 1 adrénergique)
 L'occupation du site provoque un échange GDP- GTP sur une protéine G
